--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -662,10 +665,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -674,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0008464570636233179</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07009297764934155</v>
+        <v>0.225202911525729</v>
       </c>
       <c r="F2">
-        <v>0.04448455179163968</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.04539466964219265</v>
+        <v>0.08463639848483201</v>
       </c>
       <c r="H2">
-        <v>0.02037722750575902</v>
+        <v>0.06213092457403804</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -695,37 +701,37 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04850738180508758</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.004998536148869613</v>
       </c>
       <c r="M2">
-        <v>0.1101160843398459</v>
+        <v>0.02907979958222789</v>
       </c>
       <c r="N2">
-        <v>0.1412450804082384</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.06786809913577249</v>
+        <v>0.2043889317615568</v>
       </c>
       <c r="P2">
-        <v>0.03619626360227308</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01548960142468087</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1332746214499288</v>
+        <v>0.09745870825258381</v>
       </c>
       <c r="S2">
-        <v>0.07247048239457612</v>
+        <v>0.0170411829179481</v>
       </c>
       <c r="T2">
-        <v>0.1851876904402279</v>
+        <v>0.1645331426608941</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.05968617361011624</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -749,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.005782613102825118</v>
+        <v>0.02122781639355187</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.02228541567167221</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -761,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.002381642793435917</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0002845554505514655</v>
+        <v>0.007330058415980378</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -772,10 +778,13 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -784,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.171702537436719</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001949443460812957</v>
+        <v>0.2311960427872575</v>
       </c>
       <c r="F3">
-        <v>0.05826936416561582</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.03383913379315021</v>
+        <v>0.1020856942619145</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.05676211570826685</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -805,37 +814,37 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.07604134795866979</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08210080009524807</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.004773733427648691</v>
       </c>
       <c r="N3">
-        <v>0.243783329372892</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.2690623356113953</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0806443918020239</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01067298868354193</v>
+        <v>0.09696313681208006</v>
       </c>
       <c r="S3">
-        <v>0.1706124962805226</v>
+        <v>0.00732410924117459</v>
       </c>
       <c r="T3">
-        <v>0.008889269952726517</v>
+        <v>0.1253659044009162</v>
       </c>
       <c r="U3">
-        <v>0.03965709155553353</v>
+        <v>0.03858332811513485</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -847,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.001124480252044533</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -856,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02145489129396419</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0003829141485795281</v>
+        <v>0.05213653800856637</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01462258137360079</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -882,10 +891,13 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -894,61 +906,61 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2207149227007408</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.008132993378711265</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.06818760751432139</v>
+        <v>0.2202087264139969</v>
       </c>
       <c r="G4">
-        <v>0.05664690838283121</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1219003126717404</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.05821697051313654</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02750203285179573</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1136939909426669</v>
+        <v>0.00574363891501226</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.003041273076089028</v>
       </c>
       <c r="N4">
-        <v>0.1917019104425311</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2782375688501518</v>
       </c>
       <c r="Q4">
-        <v>0.08658711917312777</v>
+        <v>0.003060000511148568</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1922159363556849</v>
+        <v>0.09274432298921775</v>
       </c>
       <c r="T4">
-        <v>0.004069317007811368</v>
+        <v>0.01566889270738303</v>
       </c>
       <c r="U4">
-        <v>0.01865310843509864</v>
+        <v>0.0883386168738715</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.03462188188656019</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -966,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01189415281467878</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.06244819530495407</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01576959928673783</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -992,10 +1004,13 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1004,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2207468572998182</v>
       </c>
       <c r="E5">
-        <v>0.1710063744167687</v>
+        <v>0.007867974977957057</v>
       </c>
       <c r="F5">
-        <v>0.02667952771242</v>
+        <v>0.1290799369726891</v>
       </c>
       <c r="G5">
-        <v>0.07048842176554446</v>
+        <v>0.04572311226363543</v>
       </c>
       <c r="H5">
-        <v>0.04259321876820902</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1028,43 +1043,43 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04776879471852993</v>
+        <v>0.009590222319912387</v>
       </c>
       <c r="M5">
-        <v>0.1148558486469529</v>
+        <v>0.04737466716761782</v>
       </c>
       <c r="N5">
-        <v>0.008975720043108143</v>
+        <v>0.2070588863754649</v>
       </c>
       <c r="O5">
-        <v>0.1738507635505282</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.1271959763178463</v>
       </c>
       <c r="R5">
-        <v>0.102983523309786</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.1268019710605093</v>
       </c>
       <c r="T5">
-        <v>0.1883609295811709</v>
+        <v>0.004750276335856275</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03305416598677679</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.005801610631584866</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1076,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.06800850827710833</v>
       </c>
       <c r="AC5">
-        <v>0.01938271150020498</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1102,10 +1117,13 @@
       <c r="AJ5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1114,64 +1132,64 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03458282264795465</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02312423813842653</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08316488917773351</v>
+        <v>0.2708439866842711</v>
       </c>
       <c r="G6">
-        <v>0.09996811038135137</v>
+        <v>0.01480126652502122</v>
       </c>
       <c r="H6">
-        <v>0.02769317061367617</v>
+        <v>0.1324187584258339</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.04710198116258236</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03538183398599539</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01531158741733366</v>
       </c>
       <c r="M6">
-        <v>0.05953123838766115</v>
+        <v>0.01599222904278976</v>
       </c>
       <c r="N6">
-        <v>0.1970872778162309</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0618305601271338</v>
+        <v>0.004153960572663908</v>
       </c>
       <c r="P6">
-        <v>0.007059615658957061</v>
+        <v>0.2191340589117376</v>
       </c>
       <c r="Q6">
-        <v>0.01314662652846956</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1247741826188429</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.03666306034347517</v>
+        <v>0.09390948032424108</v>
       </c>
       <c r="T6">
-        <v>0.1476565635511564</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01004633560979529</v>
+        <v>0.09394961671592493</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.005761571995402128</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.002908731630060016</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1189,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.03828947441314022</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.06738562608802899</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.01205716655600415</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1207,9 +1225,12 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.004269977948105305</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1241,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1335,10 +1356,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1347,328 +1371,337 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0008464570636233179</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07093943471296488</v>
+        <v>0.225202911525729</v>
       </c>
       <c r="F2">
-        <v>0.1154239865046046</v>
+        <v>0.225202911525729</v>
       </c>
       <c r="G2">
-        <v>0.1608186561467972</v>
+        <v>0.3098393100105611</v>
       </c>
       <c r="H2">
-        <v>0.1811958836525562</v>
+        <v>0.3719702345845991</v>
       </c>
       <c r="I2">
-        <v>0.1811958836525562</v>
+        <v>0.3719702345845991</v>
       </c>
       <c r="J2">
-        <v>0.1811958836525562</v>
+        <v>0.3719702345845991</v>
       </c>
       <c r="K2">
-        <v>0.2297032654576438</v>
+        <v>0.3719702345845991</v>
       </c>
       <c r="L2">
-        <v>0.2297032654576438</v>
+        <v>0.3769687707334687</v>
       </c>
       <c r="M2">
-        <v>0.3398193497974897</v>
+        <v>0.4060485703156966</v>
       </c>
       <c r="N2">
-        <v>0.4810644302057281</v>
+        <v>0.4060485703156966</v>
       </c>
       <c r="O2">
-        <v>0.5489325293415006</v>
+        <v>0.6104375020772534</v>
       </c>
       <c r="P2">
-        <v>0.5851287929437737</v>
+        <v>0.6104375020772534</v>
       </c>
       <c r="Q2">
-        <v>0.6006183943684547</v>
+        <v>0.6104375020772534</v>
       </c>
       <c r="R2">
-        <v>0.7338930158183834</v>
+        <v>0.7078962103298373</v>
       </c>
       <c r="S2">
-        <v>0.8063634982129595</v>
+        <v>0.7249373932477854</v>
       </c>
       <c r="T2">
-        <v>0.9915511886531874</v>
+        <v>0.8894705359086794</v>
       </c>
       <c r="U2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="V2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="W2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="X2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="Y2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="Z2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="AA2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="AB2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="AC2">
-        <v>0.9973338017560125</v>
+        <v>0.9703845259123475</v>
       </c>
       <c r="AD2">
-        <v>0.9973338017560125</v>
+        <v>0.9926699415840197</v>
       </c>
       <c r="AE2">
-        <v>0.9973338017560125</v>
+        <v>0.9926699415840197</v>
       </c>
       <c r="AF2">
-        <v>0.9973338017560125</v>
+        <v>0.9926699415840197</v>
       </c>
       <c r="AG2">
-        <v>0.9997154445494484</v>
+        <v>0.9926699415840197</v>
       </c>
       <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.2311960427872575</v>
+      </c>
+      <c r="F3">
+        <v>0.2311960427872575</v>
+      </c>
+      <c r="G3">
+        <v>0.333281737049172</v>
+      </c>
+      <c r="H3">
+        <v>0.3900438527574388</v>
+      </c>
+      <c r="I3">
+        <v>0.3900438527574388</v>
+      </c>
+      <c r="J3">
+        <v>0.3900438527574388</v>
+      </c>
+      <c r="K3">
+        <v>0.3900438527574388</v>
+      </c>
+      <c r="L3">
+        <v>0.3900438527574388</v>
+      </c>
+      <c r="M3">
+        <v>0.3948175861850875</v>
+      </c>
+      <c r="N3">
+        <v>0.3948175861850875</v>
+      </c>
+      <c r="O3">
+        <v>0.6638799217964828</v>
+      </c>
+      <c r="P3">
+        <v>0.6638799217964828</v>
+      </c>
+      <c r="Q3">
+        <v>0.6638799217964828</v>
+      </c>
+      <c r="R3">
+        <v>0.7608430586085628</v>
+      </c>
+      <c r="S3">
+        <v>0.7681671678497374</v>
+      </c>
+      <c r="T3">
+        <v>0.8935330722506536</v>
+      </c>
+      <c r="U3">
+        <v>0.9321164003657885</v>
+      </c>
+      <c r="V3">
+        <v>0.9321164003657885</v>
+      </c>
+      <c r="W3">
+        <v>0.9321164003657885</v>
+      </c>
+      <c r="X3">
+        <v>0.9321164003657885</v>
+      </c>
+      <c r="Y3">
+        <v>0.9332408806178329</v>
+      </c>
+      <c r="Z3">
+        <v>0.9332408806178329</v>
+      </c>
+      <c r="AA3">
+        <v>0.9332408806178329</v>
+      </c>
+      <c r="AB3">
+        <v>0.9332408806178329</v>
+      </c>
+      <c r="AC3">
+        <v>0.9853774186263993</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.2202087264139969</v>
+      </c>
+      <c r="G4">
+        <v>0.2202087264139969</v>
+      </c>
+      <c r="H4">
+        <v>0.3421090390857373</v>
+      </c>
+      <c r="I4">
+        <v>0.4003260095988739</v>
+      </c>
+      <c r="J4">
+        <v>0.4003260095988739</v>
+      </c>
+      <c r="K4">
+        <v>0.4003260095988739</v>
+      </c>
+      <c r="L4">
+        <v>0.4060696485138862</v>
+      </c>
+      <c r="M4">
+        <v>0.4091109215899752</v>
+      </c>
+      <c r="N4">
+        <v>0.4091109215899752</v>
+      </c>
+      <c r="O4">
+        <v>0.4091109215899752</v>
+      </c>
+      <c r="P4">
+        <v>0.687348490440127</v>
+      </c>
+      <c r="Q4">
+        <v>0.6904084909512755</v>
+      </c>
+      <c r="R4">
+        <v>0.6904084909512755</v>
+      </c>
+      <c r="S4">
+        <v>0.7831528139404933</v>
+      </c>
+      <c r="T4">
+        <v>0.7988217066478763</v>
+      </c>
+      <c r="U4">
+        <v>0.8871603235217478</v>
+      </c>
+      <c r="V4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="W4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="X4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="Y4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="Z4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="AA4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="AB4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="AC4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="AD4">
+        <v>0.9842304007132621</v>
+      </c>
+      <c r="AE4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AI2">
+      <c r="AF4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="AG4">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.171702537436719</v>
-      </c>
-      <c r="E3">
-        <v>0.1736519808975319</v>
-      </c>
-      <c r="F3">
-        <v>0.2319213450631478</v>
-      </c>
-      <c r="G3">
-        <v>0.265760478856298</v>
-      </c>
-      <c r="H3">
-        <v>0.265760478856298</v>
-      </c>
-      <c r="I3">
-        <v>0.265760478856298</v>
-      </c>
-      <c r="J3">
-        <v>0.265760478856298</v>
-      </c>
-      <c r="K3">
-        <v>0.3418018268149678</v>
-      </c>
-      <c r="L3">
-        <v>0.4239026269102159</v>
-      </c>
-      <c r="M3">
-        <v>0.4239026269102159</v>
-      </c>
-      <c r="N3">
-        <v>0.6676859562831079</v>
-      </c>
-      <c r="O3">
-        <v>0.6676859562831079</v>
-      </c>
-      <c r="P3">
-        <v>0.6676859562831079</v>
-      </c>
-      <c r="Q3">
-        <v>0.7483303480851318</v>
-      </c>
-      <c r="R3">
-        <v>0.7590033367686737</v>
-      </c>
-      <c r="S3">
-        <v>0.9296158330491963</v>
-      </c>
-      <c r="T3">
-        <v>0.9385051030019228</v>
-      </c>
-      <c r="U3">
-        <v>0.9781621945574563</v>
-      </c>
-      <c r="V3">
-        <v>0.9781621945574563</v>
-      </c>
-      <c r="W3">
-        <v>0.9781621945574563</v>
-      </c>
-      <c r="X3">
-        <v>0.9781621945574563</v>
-      </c>
-      <c r="Y3">
-        <v>0.9781621945574563</v>
-      </c>
-      <c r="Z3">
-        <v>0.9781621945574563</v>
-      </c>
-      <c r="AA3">
-        <v>0.9781621945574563</v>
-      </c>
-      <c r="AB3">
-        <v>0.9996170858514205</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.2207149227007408</v>
-      </c>
-      <c r="E4">
-        <v>0.228847916079452</v>
-      </c>
-      <c r="F4">
-        <v>0.2970355235937734</v>
-      </c>
-      <c r="G4">
-        <v>0.3536824319766046</v>
-      </c>
-      <c r="H4">
-        <v>0.3536824319766046</v>
-      </c>
-      <c r="I4">
-        <v>0.3536824319766046</v>
-      </c>
-      <c r="J4">
-        <v>0.3536824319766046</v>
-      </c>
-      <c r="K4">
-        <v>0.3811844648284003</v>
-      </c>
-      <c r="L4">
-        <v>0.4948784557710672</v>
-      </c>
-      <c r="M4">
-        <v>0.4948784557710672</v>
-      </c>
-      <c r="N4">
-        <v>0.6865803662135983</v>
-      </c>
-      <c r="O4">
-        <v>0.6865803662135983</v>
-      </c>
-      <c r="P4">
-        <v>0.6865803662135983</v>
-      </c>
-      <c r="Q4">
-        <v>0.7731674853867261</v>
-      </c>
-      <c r="R4">
-        <v>0.7731674853867261</v>
-      </c>
-      <c r="S4">
-        <v>0.965383421742411</v>
-      </c>
-      <c r="T4">
-        <v>0.9694527387502223</v>
-      </c>
-      <c r="U4">
-        <v>0.9881058471853209</v>
-      </c>
-      <c r="V4">
-        <v>0.9881058471853209</v>
-      </c>
-      <c r="W4">
-        <v>0.9881058471853209</v>
-      </c>
-      <c r="X4">
-        <v>0.9881058471853209</v>
-      </c>
-      <c r="Y4">
-        <v>0.9881058471853209</v>
-      </c>
-      <c r="Z4">
-        <v>0.9881058471853209</v>
-      </c>
-      <c r="AA4">
-        <v>0.9881058471853209</v>
-      </c>
-      <c r="AB4">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AC4">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AD4">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AE4">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AF4">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AG4">
-        <v>0.9999999999999997</v>
-      </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1677,79 +1710,79 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2207468572998182</v>
       </c>
       <c r="E5">
-        <v>0.1710063744167687</v>
+        <v>0.2286148322777752</v>
       </c>
       <c r="F5">
-        <v>0.1976859021291887</v>
+        <v>0.3576947692504643</v>
       </c>
       <c r="G5">
-        <v>0.2681743238947331</v>
+        <v>0.4034178815140997</v>
       </c>
       <c r="H5">
-        <v>0.3107675426629422</v>
+        <v>0.4034178815140997</v>
       </c>
       <c r="I5">
-        <v>0.3107675426629422</v>
+        <v>0.4034178815140997</v>
       </c>
       <c r="J5">
-        <v>0.3107675426629422</v>
+        <v>0.4034178815140997</v>
       </c>
       <c r="K5">
-        <v>0.3107675426629422</v>
+        <v>0.4034178815140997</v>
       </c>
       <c r="L5">
-        <v>0.3585363373814721</v>
+        <v>0.4130081038340122</v>
       </c>
       <c r="M5">
-        <v>0.473392186028425</v>
+        <v>0.4603827710016299</v>
       </c>
       <c r="N5">
-        <v>0.4823679060715331</v>
+        <v>0.6674416573770949</v>
       </c>
       <c r="O5">
-        <v>0.6562186696220613</v>
+        <v>0.6674416573770949</v>
       </c>
       <c r="P5">
-        <v>0.6562186696220613</v>
+        <v>0.6674416573770949</v>
       </c>
       <c r="Q5">
-        <v>0.6562186696220613</v>
+        <v>0.7946376336949412</v>
       </c>
       <c r="R5">
-        <v>0.7592021929318473</v>
+        <v>0.7946376336949412</v>
       </c>
       <c r="S5">
-        <v>0.7592021929318473</v>
+        <v>0.9214396047554505</v>
       </c>
       <c r="T5">
-        <v>0.9475631225130182</v>
+        <v>0.9261898810913067</v>
       </c>
       <c r="U5">
-        <v>0.9475631225130182</v>
+        <v>0.9261898810913067</v>
       </c>
       <c r="V5">
-        <v>0.980617288499795</v>
+        <v>0.9261898810913067</v>
       </c>
       <c r="W5">
-        <v>0.980617288499795</v>
+        <v>0.9261898810913067</v>
       </c>
       <c r="X5">
-        <v>0.980617288499795</v>
+        <v>0.9319914917228916</v>
       </c>
       <c r="Y5">
-        <v>0.980617288499795</v>
+        <v>0.9319914917228916</v>
       </c>
       <c r="Z5">
-        <v>0.980617288499795</v>
+        <v>0.9319914917228916</v>
       </c>
       <c r="AA5">
-        <v>0.980617288499795</v>
+        <v>0.9319914917228916</v>
       </c>
       <c r="AB5">
-        <v>0.980617288499795</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -1775,10 +1808,13 @@
       <c r="AJ5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1787,102 +1823,105 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03458282264795465</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05770706078638118</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1408719499641147</v>
+        <v>0.2708439866842711</v>
       </c>
       <c r="G6">
-        <v>0.2408400603454661</v>
+        <v>0.2856452532092923</v>
       </c>
       <c r="H6">
-        <v>0.2685332309591422</v>
+        <v>0.4180640116351262</v>
       </c>
       <c r="I6">
-        <v>0.2685332309591422</v>
+        <v>0.4651659927977086</v>
       </c>
       <c r="J6">
-        <v>0.2685332309591422</v>
+        <v>0.4651659927977086</v>
       </c>
       <c r="K6">
-        <v>0.3039150649451376</v>
+        <v>0.4651659927977086</v>
       </c>
       <c r="L6">
-        <v>0.3039150649451376</v>
+        <v>0.4804775802150423</v>
       </c>
       <c r="M6">
-        <v>0.3634463033327988</v>
+        <v>0.496469809257832</v>
       </c>
       <c r="N6">
-        <v>0.5605335811490296</v>
+        <v>0.496469809257832</v>
       </c>
       <c r="O6">
-        <v>0.6223641412761635</v>
+        <v>0.5006237698304959</v>
       </c>
       <c r="P6">
-        <v>0.6294237569351205</v>
+        <v>0.7197578287422336</v>
       </c>
       <c r="Q6">
-        <v>0.6425703834635901</v>
+        <v>0.7197578287422336</v>
       </c>
       <c r="R6">
-        <v>0.7673445660824331</v>
+        <v>0.7197578287422336</v>
       </c>
       <c r="S6">
-        <v>0.8040076264259083</v>
+        <v>0.8136673090664747</v>
       </c>
       <c r="T6">
-        <v>0.9516641899770647</v>
+        <v>0.8136673090664747</v>
       </c>
       <c r="U6">
-        <v>0.96171052558686</v>
+        <v>0.9076169257823996</v>
       </c>
       <c r="V6">
-        <v>0.96171052558686</v>
+        <v>0.9133784977778018</v>
       </c>
       <c r="W6">
-        <v>0.96171052558686</v>
+        <v>0.9162872294078618</v>
       </c>
       <c r="X6">
-        <v>0.96171052558686</v>
+        <v>0.9162872294078618</v>
       </c>
       <c r="Y6">
-        <v>0.96171052558686</v>
+        <v>0.9162872294078618</v>
       </c>
       <c r="Z6">
-        <v>0.96171052558686</v>
+        <v>0.9162872294078618</v>
       </c>
       <c r="AA6">
-        <v>0.96171052558686</v>
+        <v>0.9162872294078618</v>
       </c>
       <c r="AB6">
-        <v>0.96171052558686</v>
+        <v>0.9162872294078618</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9162872294078618</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9836728554958908</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9836728554958908</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.995730022051895</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.995730022051895</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.995730022051895</v>
       </c>
       <c r="AI6">
         <v>1</v>
       </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
         <v>1</v>
       </c>
     </row>
@@ -1901,48 +1940,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1957,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5489325293415006</v>
+        <v>0.6104375020772534</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1969,36 +2008,36 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6676859562831079</v>
+        <v>0.6638799217964828</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2010,36 +2049,36 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6865803662135983</v>
+        <v>0.687348490440127</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2051,36 +2090,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6562186696220613</v>
+        <v>0.6674416573770949</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2092,36 +2131,36 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5605335811490296</v>
+        <v>0.5006237698304959</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -2133,16 +2172,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2160,48 +2199,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2216,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7338930158183834</v>
+        <v>0.7078962103298373</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -2228,36 +2267,36 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7483303480851318</v>
+        <v>0.7608430586085628</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -2269,36 +2308,36 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7731674853867261</v>
+        <v>0.7831528139404933</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2310,36 +2349,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7592021929318473</v>
+        <v>0.7946376336949412</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2351,39 +2390,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7673445660824331</v>
+        <v>0.7197578287422336</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -2392,16 +2431,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2419,48 +2458,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2469,16 +2508,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8063634982129595</v>
+        <v>0.8894705359086794</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -2487,36 +2526,36 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9296158330491963</v>
+        <v>0.8935330722506536</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2528,36 +2567,36 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.965383421742411</v>
+        <v>0.8871603235217478</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2569,36 +2608,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9475631225130182</v>
+        <v>0.9214396047554505</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2610,27 +2649,27 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2639,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8040076264259083</v>
+        <v>0.8136673090664747</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -2651,16 +2690,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2678,48 +2717,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2728,16 +2767,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9915511886531874</v>
+        <v>0.9491567095187956</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -2746,39 +2785,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9321164003657885</v>
+      </c>
+      <c r="G3">
         <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9296158330491963</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -2787,39 +2826,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.921782205408308</v>
+      </c>
+      <c r="G4">
         <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.965383421742411</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -2828,36 +2867,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9475631225130182</v>
+        <v>0.9214396047554505</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2869,36 +2908,36 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9516641899770647</v>
+        <v>0.9076169257823996</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2910,16 +2949,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
